--- a/biology/Zoologie/Brachymeles_taylori/Brachymeles_taylori.xlsx
+++ b/biology/Zoologie/Brachymeles_taylori/Brachymeles_taylori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachymeles taylori est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachymeles taylori est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre sur les îles de Negros, de Cebu, d'Inampulugan, de Panay, de Ponson (ceb), de Poro, de Pan de Azúcar, de Danjugan et de Siquijor[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre sur les îles de Negros, de Cebu, d'Inampulugan, de Panay, de Ponson (ceb), de Poro, de Pan de Azúcar, de Danjugan et de Siquijor.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edward Harrison Taylor.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brown, 1956 : A revision of the genus Brachymeles (Scincidae), with descriptions of new species and subspecies. Breviora, vol. 54, p. 1-19 (texte intégral).</t>
         </is>
